--- a/data/trans_orig/IP07A14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE630DD-AD96-4660-98B5-2E72DB54CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B443FAA-DD36-4733-969F-13A53587D5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E00BFA13-510D-47B5-9C84-293FDB5D89E4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7FEF56F1-CFBC-420C-AD51-AFADE495703D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,205 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -100,27 +295,6 @@
     <t>5,35%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>35,1%</t>
   </si>
   <si>
@@ -148,24 +322,6 @@
     <t>42,79%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>61,07%</t>
   </si>
   <si>
@@ -193,108 +349,126 @@
     <t>64,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
     <t>8,55%</t>
   </si>
   <si>
@@ -316,21 +490,6 @@
     <t>7,91%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
     <t>42,34%</t>
   </si>
   <si>
@@ -358,12 +517,6 @@
     <t>48,34%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>53,55%</t>
   </si>
   <si>
@@ -385,157 +538,25 @@
     <t>46,56%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>3,63%</t>
@@ -565,18 +586,6 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>34,06%</t>
   </si>
   <si>
@@ -604,15 +613,6 @@
     <t>38,46%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>62,3%</t>
   </si>
   <si>
@@ -643,6 +643,153 @@
     <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
     <t>3,34%</t>
   </si>
   <si>
@@ -661,9 +808,6 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>33,18%</t>
   </si>
   <si>
@@ -715,85 +859,127 @@
     <t>69,48%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>5,86%</t>
@@ -817,27 +1003,9 @@
     <t>5,3%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>33,82%</t>
   </si>
   <si>
@@ -865,12 +1033,6 @@
     <t>43,92%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>59,57%</t>
   </si>
   <si>
@@ -895,166 +1057,22 @@
     <t>63,22%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>3,91%</t>
@@ -1078,15 +1096,6 @@
     <t>4,37%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>30,05%</t>
   </si>
   <si>
@@ -1114,15 +1123,6 @@
     <t>36,35%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>65,66%</t>
   </si>
   <si>
@@ -1153,6 +1153,174 @@
     <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 47,18%)</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>3,78%</t>
   </si>
   <si>
@@ -1174,9 +1342,6 @@
     <t>7,47%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>30,37%</t>
   </si>
   <si>
@@ -1204,15 +1369,6 @@
     <t>36,28%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
     <t>65,84%</t>
   </si>
   <si>
@@ -1240,88 +1396,91 @@
     <t>69,22%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>4,14%</t>
@@ -1339,15 +1498,6 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>35,42%</t>
   </si>
   <si>
@@ -1387,9 +1537,6 @@
     <t>62,18%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
     <t>70,01%</t>
   </si>
   <si>
@@ -1402,151 +1549,13 @@
     <t>68,38%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>3,0%</t>
@@ -1576,9 +1585,6 @@
     <t>4,69%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>30,06%</t>
   </si>
   <si>
@@ -1604,12 +1610,6 @@
   </si>
   <si>
     <t>34,19%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
   </si>
   <si>
     <t>66,94%</t>
@@ -2028,7 +2028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8663EB6-EA4B-4209-8283-1CA9FDA05957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DCFA73-90CF-45F8-8D4E-3C2C906B9A93}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2146,10 +2146,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3796</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2161,40 +2161,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1949</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>5745</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2203,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2218,13 +2218,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2233,166 +2233,166 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>34833</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>40528</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>75360</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3683</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>661</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>661</v>
+        <v>4522</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>60607</v>
+        <v>12977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>60855</v>
+        <v>11354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7">
-        <v>121462</v>
+        <v>24331</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,108 +2401,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>99235</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>103993</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>203228</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2688</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>4108</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2541,121 +2541,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>20561</v>
+        <v>2688</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>15991</v>
+        <v>1421</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>36552</v>
+        <v>4108</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>20561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>15991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>36552</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>67</v>
@@ -2664,13 +2664,13 @@
         <v>43750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -2679,13 +2679,13 @@
         <v>31567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>114</v>
@@ -2694,13 +2694,13 @@
         <v>75318</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2715,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -2730,13 +2730,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -2745,72 +2745,72 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4077</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>5120</v>
+        <v>661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>9197</v>
+        <v>661</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2819,196 +2819,196 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>42022</v>
+        <v>3796</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>38416</v>
+        <v>1949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="M18" s="7">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>80438</v>
+        <v>5745</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>34833</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="7">
+        <v>64</v>
+      </c>
+      <c r="I19" s="7">
+        <v>40528</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="7">
+        <v>117</v>
+      </c>
+      <c r="N19" s="7">
+        <v>75360</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7">
-        <v>53143</v>
+        <v>60607</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="I20" s="7">
-        <v>46900</v>
+        <v>60855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="N20" s="7">
-        <v>100043</v>
+        <v>121462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,54 +3017,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7">
-        <v>99242</v>
+        <v>99235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>91133</v>
+        <v>103993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M21" s="7">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="N21" s="7">
-        <v>190374</v>
+        <v>203228</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3106,19 +3106,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3127,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3142,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3157,166 +3157,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>839</v>
+        <v>1994</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>3683</v>
+        <v>2919</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M24" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>4522</v>
+        <v>4913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>19465</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20744</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>40209</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7">
-        <v>12977</v>
+        <v>44836</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>60</v>
+      </c>
+      <c r="I26" s="7">
+        <v>37394</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="7">
-        <v>14</v>
-      </c>
-      <c r="I26" s="7">
-        <v>11354</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>130</v>
+      </c>
+      <c r="N26" s="7">
+        <v>82230</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M26" s="7">
-        <v>31</v>
-      </c>
-      <c r="N26" s="7">
-        <v>24331</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,108 +3325,108 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>66295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>127351</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1994</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2919</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M28" s="7">
-        <v>8</v>
-      </c>
-      <c r="N28" s="7">
-        <v>4913</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3435,196 +3435,196 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>19465</v>
+        <v>4077</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="7">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5120</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M30" s="7">
+        <v>13</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9197</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" s="7">
-        <v>35</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20744</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M30" s="7">
-        <v>66</v>
-      </c>
-      <c r="N30" s="7">
-        <v>40209</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>42022</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>38416</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>80438</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D32" s="7">
-        <v>44836</v>
+        <v>53143</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H32" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I32" s="7">
-        <v>37394</v>
+        <v>46900</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M32" s="7">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="N32" s="7">
-        <v>82230</v>
+        <v>100043</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,49 +3633,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D33" s="7">
-        <v>66295</v>
+        <v>99242</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I33" s="7">
-        <v>61057</v>
+        <v>91133</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="N33" s="7">
-        <v>127351</v>
+        <v>190374</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,55 +3686,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>12554</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>661</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>661</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H34" s="7">
-        <v>17</v>
-      </c>
-      <c r="I34" s="7">
-        <v>11409</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M34" s="7">
-        <v>36</v>
-      </c>
-      <c r="N34" s="7">
-        <v>23963</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3758,13 +3758,13 @@
         <v>696</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3773,112 +3773,112 @@
         <v>696</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
+        <v>19</v>
+      </c>
+      <c r="D36" s="7">
+        <v>12554</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="7">
+        <v>17</v>
+      </c>
+      <c r="I36" s="7">
+        <v>11409</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="7">
-        <v>117720</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="L36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M36" s="7">
+        <v>36</v>
+      </c>
+      <c r="N36" s="7">
+        <v>23963</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="H36" s="7">
-        <v>178</v>
-      </c>
-      <c r="I36" s="7">
-        <v>119361</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M36" s="7">
-        <v>355</v>
-      </c>
-      <c r="N36" s="7">
-        <v>237080</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>117720</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="I37" s="7">
-        <v>661</v>
+        <v>119361</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" s="7">
+        <v>355</v>
+      </c>
+      <c r="N37" s="7">
+        <v>237080</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>661</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>190</v>
@@ -3887,7 +3887,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
         <v>323</v>
@@ -3947,13 +3947,13 @@
         <v>345587</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>475</v>
@@ -3962,13 +3962,13 @@
         <v>320198</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>994</v>
@@ -3977,13 +3977,13 @@
         <v>665785</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +4004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADE5123-94E2-44C9-B092-2B7408F79DFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B370E75C-79A2-43F7-B414-498B57C2A608}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,55 +4122,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3242</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1218</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="M4" s="7">
-        <v>7</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4460</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4179,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4209,166 +4209,166 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>32243</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>32695</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>64939</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5677</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4250</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>9927</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>61705</v>
+        <v>8813</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7693</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H8" s="7">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7">
-        <v>64529</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>19</v>
+      </c>
+      <c r="N8" s="7">
+        <v>16506</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M8" s="7">
-        <v>188</v>
-      </c>
-      <c r="N8" s="7">
-        <v>126233</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,72 +4377,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>97190</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>98442</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>195632</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2738</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4451,34 +4451,34 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>2738</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4487,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4517,121 +4517,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>16083</v>
+        <v>2738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>17398</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>33481</v>
+        <v>2738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>16083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>17398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>33481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>57</v>
@@ -4640,13 +4640,13 @@
         <v>39354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4655,13 +4655,13 @@
         <v>35624</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -4670,13 +4670,13 @@
         <v>74977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4691,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>74</v>
@@ -4706,13 +4706,13 @@
         <v>53022</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>159</v>
@@ -4721,87 +4721,87 @@
         <v>111196</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>5373</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>4335</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>9708</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4810,181 +4810,181 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>31004</v>
+        <v>3242</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>37202</v>
+        <v>1218</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="M18" s="7">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>68205</v>
+        <v>4460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>32243</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>32695</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M19" s="7">
+        <v>99</v>
+      </c>
+      <c r="N19" s="7">
+        <v>64939</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7">
-        <v>54617</v>
+        <v>61705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="I20" s="7">
-        <v>49791</v>
+        <v>64529</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="N20" s="7">
-        <v>104407</v>
+        <v>126233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,54 +4993,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>91685</v>
+        <v>97190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>98442</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M21" s="7">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="N21" s="7">
-        <v>183012</v>
+        <v>195632</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5052,64 +5052,64 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5118,181 +5118,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1589</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1812</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
-        <v>5677</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="N24" s="7">
+        <v>3401</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4250</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M24" s="7">
-        <v>11</v>
-      </c>
-      <c r="N24" s="7">
-        <v>9927</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>14463</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>25089</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>39552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D26" s="7">
-        <v>8813</v>
+        <v>52893</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I26" s="7">
-        <v>7693</v>
+        <v>38947</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="N26" s="7">
-        <v>16506</v>
+        <v>91840</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,123 +5301,123 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>136048</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1589</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>308</v>
       </c>
       <c r="M28" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>3401</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>580</v>
+        <v>691</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5426,178 +5426,178 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>580</v>
+        <v>691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>14463</v>
+        <v>5373</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4335</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H30" s="7">
-        <v>39</v>
-      </c>
-      <c r="I30" s="7">
-        <v>25089</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>12</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9708</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="M30" s="7">
-        <v>62</v>
-      </c>
-      <c r="N30" s="7">
-        <v>39552</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>31004</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H31" s="7">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7">
+        <v>37202</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>675</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>327</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="N31" s="7">
-        <v>675</v>
+        <v>68205</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>328</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D32" s="7">
-        <v>52893</v>
+        <v>54617</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H32" s="7">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I32" s="7">
-        <v>38947</v>
+        <v>49791</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M32" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N32" s="7">
-        <v>91840</v>
+        <v>104407</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>338</v>
@@ -5609,49 +5609,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D33" s="7">
-        <v>69524</v>
+        <v>91685</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>66524</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="N33" s="7">
-        <v>136048</v>
+        <v>183012</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,55 +5662,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>12942</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>675</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H34" s="7">
-        <v>10</v>
-      </c>
-      <c r="I34" s="7">
-        <v>7365</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>675</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="M34" s="7">
-        <v>29</v>
-      </c>
-      <c r="N34" s="7">
-        <v>20306</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
@@ -5719,13 +5719,13 @@
         <v>1271</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5734,13 +5734,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -5749,112 +5749,112 @@
         <v>1271</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="D36" s="7">
-        <v>99470</v>
+        <v>12942</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" s="7">
+        <v>10</v>
+      </c>
+      <c r="I36" s="7">
+        <v>7365</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M36" s="7">
+        <v>29</v>
+      </c>
+      <c r="N36" s="7">
+        <v>20306</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="H36" s="7">
-        <v>167</v>
-      </c>
-      <c r="I36" s="7">
-        <v>116635</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M36" s="7">
-        <v>310</v>
-      </c>
-      <c r="N36" s="7">
-        <v>216105</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>99470</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H37" s="7">
+        <v>167</v>
+      </c>
+      <c r="I37" s="7">
+        <v>116635</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M37" s="7">
+        <v>310</v>
+      </c>
+      <c r="N37" s="7">
+        <v>216105</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>675</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>675</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>360</v>
@@ -5863,7 +5863,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
         <v>318</v>
@@ -5923,13 +5923,13 @@
         <v>331064</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>456</v>
@@ -5938,13 +5938,13 @@
         <v>321258</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>938</v>
@@ -5953,13 +5953,13 @@
         <v>652322</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5980,7 +5980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED29962-1632-4038-B253-BEEEC46AA996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646BF75E-0989-4BA1-804B-3A92F0FC4A2B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6098,55 +6098,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4046</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6093</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>10139</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>377</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -6155,13 +6155,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6170,13 +6170,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6185,166 +6185,166 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>32478</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>33360</v>
+        <v>1023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>65839</v>
+        <v>1023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>377</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>993</v>
+        <v>3499</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>381</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>382</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>993</v>
+        <v>9761</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>384</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>70407</v>
+        <v>8052</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9404</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>19</v>
+      </c>
+      <c r="N8" s="7">
+        <v>17456</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H8" s="7">
-        <v>100</v>
-      </c>
-      <c r="I8" s="7">
-        <v>66184</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="M8" s="7">
-        <v>199</v>
-      </c>
-      <c r="N8" s="7">
-        <v>136591</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,108 +6353,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>106931</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>106630</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
-        <v>316</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>213561</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2370</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>402</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1280</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>403</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6463,13 +6463,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6478,13 +6478,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6493,121 +6493,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>13009</v>
+        <v>2370</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>19490</v>
+        <v>1280</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>32500</v>
+        <v>3650</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>13009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>406</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>407</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>19490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>408</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>409</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>412</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>57</v>
@@ -6616,13 +6616,13 @@
         <v>43934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -6631,13 +6631,13 @@
         <v>36144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -6646,13 +6646,13 @@
         <v>80078</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6667,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -6682,13 +6682,13 @@
         <v>56915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -6697,72 +6697,72 @@
         <v>116228</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1323</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>3478</v>
+        <v>993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>430</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>4802</v>
+        <v>993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -6771,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>433</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6786,13 +6786,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6801,166 +6801,166 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>35928</v>
+        <v>4046</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>437</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H18" s="7">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>37212</v>
+        <v>6093</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M18" s="7">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>73140</v>
+        <v>10139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>442</v>
+        <v>317</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>32478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>434</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>33360</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>437</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>438</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>65839</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>441</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D20" s="7">
-        <v>64178</v>
+        <v>70407</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>100</v>
+      </c>
+      <c r="I20" s="7">
+        <v>66184</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="H20" s="7">
-        <v>88</v>
-      </c>
-      <c r="I20" s="7">
-        <v>66901</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>199</v>
+      </c>
+      <c r="N20" s="7">
+        <v>136591</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="M20" s="7">
-        <v>173</v>
-      </c>
-      <c r="N20" s="7">
-        <v>131079</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,54 +6969,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D21" s="7">
-        <v>101429</v>
+        <v>106931</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>106630</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M21" s="7">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="N21" s="7">
-        <v>209021</v>
+        <v>213561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7028,49 +7028,49 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1023</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1023</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -7079,196 +7079,196 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>6262</v>
+        <v>3022</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>460</v>
+        <v>345</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>3499</v>
+        <v>2521</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="M24" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>9761</v>
+        <v>5543</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>466</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>20301</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20518</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>464</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>40819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>467</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>468</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7">
-        <v>8052</v>
+        <v>53861</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H26" s="7">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="I26" s="7">
-        <v>9404</v>
+        <v>48671</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M26" s="7">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="N26" s="7">
-        <v>17456</v>
+        <v>102532</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,108 +7277,108 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77184</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>148894</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3022</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>477</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>478</v>
       </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>2521</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="M28" s="7">
-        <v>8</v>
-      </c>
-      <c r="N28" s="7">
-        <v>5543</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -7387,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7402,13 +7402,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7417,157 +7417,157 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>20301</v>
+        <v>1323</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>487</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="H30" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>20518</v>
+        <v>3478</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>490</v>
+        <v>396</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M30" s="7">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="N30" s="7">
-        <v>40819</v>
+        <v>4802</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>493</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>35928</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>486</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>487</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>37212</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>489</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>73140</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>21</v>
+        <v>492</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>493</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D32" s="7">
-        <v>53861</v>
+        <v>64178</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H32" s="7">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I32" s="7">
-        <v>48671</v>
+        <v>66901</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>498</v>
+        <v>382</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>499</v>
       </c>
       <c r="M32" s="7">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="N32" s="7">
-        <v>102532</v>
+        <v>131079</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>500</v>
@@ -7585,49 +7585,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D33" s="7">
-        <v>77184</v>
+        <v>101429</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="N33" s="7">
-        <v>148894</v>
+        <v>209021</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,55 +7638,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>10760</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>993</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>993</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="H34" s="7">
-        <v>22</v>
-      </c>
-      <c r="I34" s="7">
-        <v>14397</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="M34" s="7">
-        <v>37</v>
-      </c>
-      <c r="N34" s="7">
-        <v>25157</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>510</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -7695,13 +7695,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -7710,13 +7710,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -7725,121 +7725,121 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D36" s="7">
-        <v>107979</v>
+        <v>10760</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H36" s="7">
+        <v>22</v>
+      </c>
+      <c r="I36" s="7">
+        <v>14397</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="M36" s="7">
+        <v>37</v>
+      </c>
+      <c r="N36" s="7">
+        <v>25157</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="H36" s="7">
-        <v>160</v>
-      </c>
-      <c r="I36" s="7">
-        <v>114080</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="M36" s="7">
-        <v>310</v>
-      </c>
-      <c r="N36" s="7">
-        <v>222058</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>107979</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>515</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>516</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="I37" s="7">
-        <v>993</v>
+        <v>114080</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="M37" s="7">
+        <v>310</v>
+      </c>
+      <c r="N37" s="7">
+        <v>222058</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>993</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
         <v>328</v>
@@ -7899,13 +7899,13 @@
         <v>359172</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>510</v>
@@ -7914,13 +7914,13 @@
         <v>356772</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>1003</v>
@@ -7929,13 +7929,13 @@
         <v>715944</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B443FAA-DD36-4733-969F-13A53587D5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18309CF7-9516-4D54-BBAC-3C56CBB4553D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7FEF56F1-CFBC-420C-AD51-AFADE495703D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F047F440-4CA2-471F-9FBB-D89E400EC054}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="536">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -70,1408 +70,1489 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
   </si>
   <si>
     <t>50,41%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>1,39%</t>
@@ -1483,160 +1564,88 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>68,38%</t>
   </si>
   <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>0,7%</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1656,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1743,39 +1752,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1827,7 +1836,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1938,13 +1947,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1953,6 +1955,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2017,19 +2026,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DCFA73-90CF-45F8-8D4E-3C2C906B9A93}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FF3498-A277-47F6-8A0F-3CACA5F3E5A2}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2146,10 +2175,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>12977</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2161,91 +2190,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>11354</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>24331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3683</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>4522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2254,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2269,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2284,115 +2313,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>839</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3683</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>4522</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>12977</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>11354</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M8" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>24331</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,106 +2483,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>43750</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>31567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>75318</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>20561</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>15991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>36552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -2562,13 +2591,13 @@
         <v>2688</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2577,13 +2606,13 @@
         <v>1421</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -2592,112 +2621,112 @@
         <v>4108</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>20561</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>15991</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>36552</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>43750</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>31567</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>75318</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>67</v>
@@ -2762,106 +2791,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>60607</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>661</v>
+        <v>60855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="N16" s="7">
-        <v>661</v>
+        <v>121462</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>34833</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>40528</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>75360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
@@ -2870,13 +2899,13 @@
         <v>3796</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2885,13 +2914,13 @@
         <v>1949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -2900,115 +2929,115 @@
         <v>5745</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>34833</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>40528</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>75360</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>60607</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>60855</v>
+        <v>661</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>661</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="7">
-        <v>188</v>
-      </c>
-      <c r="N20" s="7">
-        <v>121462</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,112 +3093,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>44836</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="7">
+        <v>60</v>
+      </c>
+      <c r="I22" s="7">
+        <v>37394</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>82230</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>19465</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20744</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>40209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -3178,13 +3207,13 @@
         <v>1994</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -3193,13 +3222,13 @@
         <v>2919</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -3208,115 +3237,115 @@
         <v>4913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>19465</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20744</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M25" s="7">
-        <v>66</v>
-      </c>
-      <c r="N25" s="7">
-        <v>40209</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>44836</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>37394</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="M26" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>82230</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,112 +3401,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>53143</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="7">
+        <v>61</v>
+      </c>
+      <c r="I28" s="7">
+        <v>46900</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>136</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>100043</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>42022</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I29" s="7">
-        <v>696</v>
+        <v>38416</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="N29" s="7">
-        <v>696</v>
+        <v>80438</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -3486,13 +3515,13 @@
         <v>4077</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -3501,13 +3530,13 @@
         <v>5120</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3516,115 +3545,115 @@
         <v>9197</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>42022</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="H31" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>38416</v>
+        <v>696</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M31" s="7">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>80438</v>
+        <v>696</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>53143</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="7">
-        <v>61</v>
-      </c>
-      <c r="I32" s="7">
-        <v>46900</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M32" s="7">
-        <v>138</v>
-      </c>
-      <c r="N32" s="7">
-        <v>100043</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,106 +3715,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>215313</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="I34" s="7">
-        <v>661</v>
+        <v>188071</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>166</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>601</v>
       </c>
       <c r="N34" s="7">
-        <v>661</v>
+        <v>403384</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>117720</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="I35" s="7">
-        <v>696</v>
+        <v>119361</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M35" s="7">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="N35" s="7">
-        <v>696</v>
+        <v>237080</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>19</v>
@@ -3794,13 +3823,13 @@
         <v>12554</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -3809,13 +3838,13 @@
         <v>11409</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -3824,115 +3853,115 @@
         <v>23963</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>117720</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="H37" s="7">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>119361</v>
+        <v>696</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M37" s="7">
-        <v>355</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>237080</v>
+        <v>696</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>215313</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="H38" s="7">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>188071</v>
+        <v>661</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>194</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>661</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M38" s="7">
-        <v>601</v>
-      </c>
-      <c r="N38" s="7">
-        <v>403384</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,6 +4013,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4004,8 +4038,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B370E75C-79A2-43F7-B414-498B57C2A608}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F672DA5-F2B5-4642-A67A-DC91F37DF224}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4021,7 +4055,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4122,106 +4156,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7693</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>16506</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5677</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4250</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" s="7">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9927</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4230,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4245,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4260,115 +4294,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5677</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4250</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>9927</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8813</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7693</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="M8" s="7">
-        <v>19</v>
-      </c>
-      <c r="N8" s="7">
-        <v>16506</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,106 +4464,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>39354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="7">
+        <v>49</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35624</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>74977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>16083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>17398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>33481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -4538,13 +4572,13 @@
         <v>2738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4553,13 +4587,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4568,115 +4602,115 @@
         <v>2738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>16083</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>17398</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>33481</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>39354</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H14" s="7">
-        <v>49</v>
-      </c>
-      <c r="I14" s="7">
-        <v>35624</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="M14" s="7">
-        <v>106</v>
-      </c>
-      <c r="N14" s="7">
-        <v>74977</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,106 +4772,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>61705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>64529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>126233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>32243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>32695</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>64939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -4846,13 +4880,13 @@
         <v>3242</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4861,13 +4895,13 @@
         <v>1218</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -4876,115 +4910,115 @@
         <v>4460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>32243</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>32695</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>64939</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>61705</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>64529</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>126233</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,112 +5074,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>52893</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I22" s="7">
-        <v>675</v>
+        <v>38947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="N22" s="7">
-        <v>675</v>
+        <v>91840</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>580</v>
+        <v>14463</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>25089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="N23" s="7">
-        <v>580</v>
+        <v>39552</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -5154,13 +5188,13 @@
         <v>1589</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5169,13 +5203,13 @@
         <v>1812</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -5184,115 +5218,115 @@
         <v>3401</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>14463</v>
+        <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>25089</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>39552</v>
+        <v>580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>52893</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>38947</v>
+        <v>675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>303</v>
       </c>
       <c r="M26" s="7">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>91840</v>
+        <v>675</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,112 +5382,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>54617</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>49791</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>104407</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
-        <v>691</v>
+        <v>31004</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>37202</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="N29" s="7">
-        <v>691</v>
+        <v>68205</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>7</v>
@@ -5462,13 +5496,13 @@
         <v>5373</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -5477,13 +5511,13 @@
         <v>4335</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -5492,115 +5526,115 @@
         <v>9708</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>31004</v>
+        <v>691</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>323</v>
+        <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="H31" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>37202</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>326</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M31" s="7">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>68205</v>
+        <v>691</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>54617</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H32" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>49791</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>334</v>
+        <v>22</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="M32" s="7">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>104407</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>337</v>
+        <v>22</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,106 +5696,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>217381</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="I34" s="7">
-        <v>675</v>
+        <v>196583</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>166</v>
+        <v>343</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>344</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>596</v>
       </c>
       <c r="N34" s="7">
-        <v>675</v>
+        <v>413964</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>347</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="D35" s="7">
-        <v>1271</v>
+        <v>99470</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>136</v>
+        <v>351</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>116635</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>310</v>
       </c>
       <c r="N35" s="7">
-        <v>1271</v>
+        <v>216105</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>19</v>
@@ -5770,13 +5804,13 @@
         <v>12942</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -5785,13 +5819,13 @@
         <v>7365</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>361</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -5800,115 +5834,115 @@
         <v>20306</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>99470</v>
+        <v>1271</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="H37" s="7">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>116635</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>355</v>
+        <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>356</v>
+        <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="M37" s="7">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>216105</v>
+        <v>1271</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>359</v>
+        <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>217381</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>361</v>
+        <v>22</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>363</v>
+        <v>195</v>
       </c>
       <c r="H38" s="7">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>196583</v>
+        <v>675</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>364</v>
+        <v>194</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>365</v>
+        <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M38" s="7">
-        <v>596</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>413964</v>
+        <v>675</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>367</v>
+        <v>192</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>368</v>
+        <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,6 +5994,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5980,8 +6019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646BF75E-0989-4BA1-804B-3A92F0FC4A2B}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6C3F6F-D7AC-4C45-BC81-E1CB84032C43}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5997,7 +6036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6098,106 +6137,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>373</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>9404</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>17456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>282</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3499</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M5" s="7">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -6206,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6221,13 +6260,13 @@
         <v>1023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6236,115 +6275,115 @@
         <v>1023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>6262</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>377</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3499</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>380</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>381</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>9761</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>383</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8052</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>9404</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>389</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>17456</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>393</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,106 +6445,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>43934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>36144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>80078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>13009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>228</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>19490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>410</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>411</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>413</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -6514,13 +6553,13 @@
         <v>2370</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6529,13 +6568,13 @@
         <v>1280</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6544,115 +6583,115 @@
         <v>3650</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>13009</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>406</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>407</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>19490</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>408</v>
+        <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>409</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>32500</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>411</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>43934</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>414</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>415</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>36144</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>417</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>418</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M14" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>80078</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>420</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>421</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,106 +6753,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>70407</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>428</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I16" s="7">
-        <v>993</v>
+        <v>66184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="N16" s="7">
-        <v>993</v>
+        <v>136591</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>32478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>435</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>436</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>437</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>33360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>439</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>65839</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>442</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
@@ -6822,13 +6861,13 @@
         <v>4046</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -6837,13 +6876,13 @@
         <v>6093</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>430</v>
+        <v>60</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -6852,115 +6891,115 @@
         <v>10139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>32478</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>434</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>436</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>33360</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>437</v>
+        <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>438</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>65839</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>441</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>442</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>70407</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>443</v>
+        <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>444</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>445</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>66184</v>
+        <v>993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>447</v>
+        <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M20" s="7">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>136591</v>
+        <v>993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>450</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,112 +7055,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>53861</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>48671</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>102532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>459</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>20301</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>462</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20518</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>465</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>466</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>40819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>469</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -7130,13 +7169,13 @@
         <v>3022</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>455</v>
+        <v>295</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7145,13 +7184,13 @@
         <v>2521</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>43</v>
+        <v>473</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -7160,115 +7199,115 @@
         <v>5543</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>273</v>
+        <v>476</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>20301</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>461</v>
+        <v>22</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>462</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>463</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20518</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>464</v>
+        <v>22</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>465</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="M25" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>40819</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>467</v>
+        <v>22</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>468</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>53861</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>469</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>470</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="H26" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>48671</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>472</v>
+        <v>22</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>473</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M26" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>102532</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>475</v>
+        <v>22</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>476</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,112 +7363,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>64178</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>480</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>481</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>66901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>483</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>484</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>131079</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>486</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>487</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>35928</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>489</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>478</v>
+        <v>233</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>37212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>73140</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>494</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -7438,13 +7477,13 @@
         <v>1323</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7453,13 +7492,13 @@
         <v>3478</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>396</v>
+        <v>500</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -7468,115 +7507,115 @@
         <v>4802</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>106</v>
+        <v>503</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>35928</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>486</v>
+        <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>487</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="H31" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>37212</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>489</v>
+        <v>22</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>490</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="M31" s="7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>73140</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>492</v>
+        <v>22</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>493</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>64178</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>495</v>
+        <v>22</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>496</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="H32" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>66901</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>498</v>
+        <v>22</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>382</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="M32" s="7">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>131079</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>501</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,106 +7677,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>240433</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>508</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I34" s="7">
-        <v>993</v>
+        <v>227303</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>655</v>
       </c>
       <c r="N34" s="7">
-        <v>993</v>
+        <v>467736</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>514</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>107979</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>11</v>
+        <v>516</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>12</v>
+        <v>517</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>114080</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>11</v>
+        <v>519</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>12</v>
+        <v>520</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>312</v>
+        <v>521</v>
       </c>
       <c r="M35" s="7">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="N35" s="7">
-        <v>0</v>
+        <v>222058</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>11</v>
+        <v>522</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>12</v>
+        <v>523</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>343</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
@@ -7746,13 +7785,13 @@
         <v>10760</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>508</v>
+        <v>327</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -7761,13 +7800,13 @@
         <v>14397</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -7776,115 +7815,115 @@
         <v>25157</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>512</v>
+        <v>98</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>107979</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>515</v>
+        <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>516</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="H37" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>114080</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>518</v>
+        <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>519</v>
+        <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>520</v>
+        <v>336</v>
       </c>
       <c r="M37" s="7">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>222058</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>521</v>
+        <v>22</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>522</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>523</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>240433</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>524</v>
+        <v>22</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>525</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="H38" s="7">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>227303</v>
+        <v>993</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>528</v>
+        <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M38" s="7">
-        <v>655</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>467736</v>
+        <v>993</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>531</v>
+        <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,6 +7975,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18309CF7-9516-4D54-BBAC-3C56CBB4553D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D840B7-B32D-43F6-9517-450F719CCAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F047F440-4CA2-471F-9FBB-D89E400EC054}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D59D173F-D4D0-4ACE-B10A-80ED8726D166}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="531">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,7 +76,7 @@
     <t>93,93%</t>
   </si>
   <si>
-    <t>70,57%</t>
+    <t>64,19%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>75,51%</t>
   </si>
   <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>84,33%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -109,25 +109,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,43%</t>
+    <t>35,81%</t>
   </si>
   <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -154,1482 +154,1470 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>65,3%</t>
   </si>
   <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>64,45%</t>
   </si>
   <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
   </si>
   <si>
     <t>64,94%</t>
   </si>
   <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>32,65%</t>
   </si>
   <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>65,55%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
     <t>4,73%</t>
   </si>
   <si>
@@ -1639,13 +1627,10 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FF3498-A277-47F6-8A0F-3CACA5F3E5A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78756CA1-6E2B-410F-AD8C-CC654D09EBE0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2956,7 +2941,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2971,7 +2956,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3007,7 +2992,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3016,13 +3001,13 @@
         <v>661</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3031,13 +3016,13 @@
         <v>661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,7 +3078,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3105,13 +3090,13 @@
         <v>44836</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -3120,13 +3105,13 @@
         <v>37394</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -3135,13 +3120,13 @@
         <v>82230</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3141,13 @@
         <v>19465</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -3171,13 +3156,13 @@
         <v>20744</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -3186,13 +3171,13 @@
         <v>40209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3192,13 @@
         <v>1994</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -3222,13 +3207,13 @@
         <v>2919</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -3237,13 +3222,13 @@
         <v>4913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,7 +3249,7 @@
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3279,7 +3264,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3294,7 +3279,7 @@
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3330,7 +3315,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3345,7 +3330,7 @@
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3386,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3413,13 +3398,13 @@
         <v>53143</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -3428,13 +3413,13 @@
         <v>46900</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>138</v>
@@ -3443,13 +3428,13 @@
         <v>100043</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3449,13 @@
         <v>42022</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -3479,13 +3464,13 @@
         <v>38416</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>111</v>
@@ -3494,13 +3479,13 @@
         <v>80438</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3500,13 @@
         <v>4077</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -3530,13 +3515,13 @@
         <v>5120</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3545,13 +3530,13 @@
         <v>9197</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3557,7 @@
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3581,13 +3566,13 @@
         <v>696</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3596,13 +3581,13 @@
         <v>696</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,7 +3608,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3638,7 +3623,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3653,7 +3638,7 @@
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3706,13 @@
         <v>215313</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H34" s="7">
         <v>278</v>
@@ -3736,13 +3721,13 @@
         <v>188071</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M34" s="7">
         <v>601</v>
@@ -3751,13 +3736,13 @@
         <v>403384</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3757,13 @@
         <v>117720</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H35" s="7">
         <v>178</v>
@@ -3787,13 +3772,13 @@
         <v>119361</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M35" s="7">
         <v>355</v>
@@ -3802,13 +3787,13 @@
         <v>237080</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3808,13 @@
         <v>12554</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -3838,13 +3823,13 @@
         <v>11409</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -3853,13 +3838,13 @@
         <v>23963</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3865,7 @@
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3931,7 +3916,7 @@
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3946,7 +3931,7 @@
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -3961,7 +3946,7 @@
         <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4002,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4038,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F672DA5-F2B5-4642-A67A-DC91F37DF224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7546674-9BEA-4CA6-AFE3-66ABA84EF004}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4055,7 +4040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4162,13 +4147,13 @@
         <v>8813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4177,13 +4162,13 @@
         <v>7693</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4192,13 +4177,13 @@
         <v>16506</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4198,13 @@
         <v>5677</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4228,13 +4213,13 @@
         <v>4250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4243,13 +4228,13 @@
         <v>9927</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,7 +4255,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4285,7 +4270,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4300,7 +4285,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4306,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4336,7 +4321,7 @@
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4351,7 +4336,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4357,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4387,7 +4372,7 @@
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4402,7 +4387,7 @@
         <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4455,13 @@
         <v>39354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4485,13 +4470,13 @@
         <v>35624</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -4500,13 +4485,13 @@
         <v>74977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4506,13 @@
         <v>16083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4536,13 +4521,13 @@
         <v>17398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -4551,13 +4536,13 @@
         <v>33481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,10 +4557,10 @@
         <v>2738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>239</v>
@@ -4659,7 +4644,7 @@
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,7 +4695,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4763,13 @@
         <v>61705</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -4793,7 +4778,7 @@
         <v>64529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>249</v>
@@ -4910,13 +4895,13 @@
         <v>4460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,37 +4922,37 @@
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,37 +4973,37 @@
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,7 +5059,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5086,13 +5071,13 @@
         <v>52893</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -5101,13 +5086,13 @@
         <v>38947</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -5116,13 +5101,13 @@
         <v>91840</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5122,13 @@
         <v>14463</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -5152,13 +5137,13 @@
         <v>25089</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -5167,13 +5152,13 @@
         <v>39552</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,10 +5173,10 @@
         <v>1589</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>91</v>
+        <v>289</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>290</v>
@@ -5320,13 +5305,13 @@
         <v>675</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5367,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5394,13 +5379,13 @@
         <v>54617</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -5409,13 +5394,13 @@
         <v>49791</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>141</v>
@@ -5424,13 +5409,13 @@
         <v>104407</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5430,13 @@
         <v>31004</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -5460,13 +5445,13 @@
         <v>37202</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -5475,13 +5460,13 @@
         <v>68205</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5481,13 @@
         <v>5373</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -5511,13 +5496,13 @@
         <v>4335</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -5526,13 +5511,13 @@
         <v>9708</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5532,13 @@
         <v>691</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>334</v>
+        <v>87</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5568,7 +5553,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -5577,13 +5562,13 @@
         <v>691</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,7 +5589,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5619,7 +5604,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5634,7 +5619,7 @@
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5687,13 @@
         <v>217381</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H34" s="7">
         <v>278</v>
@@ -5717,13 +5702,13 @@
         <v>196583</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M34" s="7">
         <v>596</v>
@@ -5732,13 +5717,13 @@
         <v>413964</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5738,13 @@
         <v>99470</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H35" s="7">
         <v>167</v>
@@ -5768,13 +5753,13 @@
         <v>116635</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M35" s="7">
         <v>310</v>
@@ -5783,13 +5768,13 @@
         <v>216105</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5789,13 @@
         <v>12942</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>359</v>
+        <v>219</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -5819,13 +5804,13 @@
         <v>7365</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -5834,13 +5819,13 @@
         <v>20306</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5840,13 @@
         <v>1271</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5876,7 +5861,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -5885,13 +5870,13 @@
         <v>1271</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,7 +5897,7 @@
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>366</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -5927,7 +5912,7 @@
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -5942,7 +5927,7 @@
         <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,7 +5983,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6019,7 +6004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6C3F6F-D7AC-4C45-BC81-E1CB84032C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EFC768-A408-41B5-9719-0E887158D626}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6036,7 +6021,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6143,13 +6128,13 @@
         <v>8052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6158,13 +6143,13 @@
         <v>9404</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -6173,13 +6158,13 @@
         <v>17456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6179,13 @@
         <v>6262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6209,13 +6194,13 @@
         <v>3499</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6224,13 +6209,13 @@
         <v>9761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,7 +6236,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6260,13 +6245,13 @@
         <v>1023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6275,13 +6260,13 @@
         <v>1023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,7 +6287,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6317,7 +6302,7 @@
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6332,7 +6317,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,7 +6338,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6368,7 +6353,7 @@
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6383,7 +6368,7 @@
         <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6436,13 @@
         <v>43934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -6466,13 +6451,13 @@
         <v>36144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -6481,13 +6466,13 @@
         <v>80078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6487,13 @@
         <v>13009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -6517,13 +6502,13 @@
         <v>19490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -6532,13 +6517,13 @@
         <v>32500</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6538,13 @@
         <v>2370</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6568,13 +6553,13 @@
         <v>1280</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6583,13 +6568,13 @@
         <v>3650</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,7 +6610,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6640,7 +6625,7 @@
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,7 +6661,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6691,7 +6676,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6744,13 @@
         <v>70407</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -6774,13 +6759,13 @@
         <v>66184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -6789,13 +6774,13 @@
         <v>136591</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6795,13 @@
         <v>32478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -6825,13 +6810,13 @@
         <v>33360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>440</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -6840,13 +6825,13 @@
         <v>65839</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,13 +6846,13 @@
         <v>4046</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>366</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -6876,13 +6861,13 @@
         <v>6093</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>60</v>
+        <v>441</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -6891,13 +6876,13 @@
         <v>10139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,7 +6918,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6978,13 +6963,13 @@
         <v>993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6993,13 +6978,13 @@
         <v>993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,7 +7040,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7067,13 +7052,13 @@
         <v>53861</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -7082,13 +7067,13 @@
         <v>48671</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>154</v>
@@ -7097,13 +7082,13 @@
         <v>102532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7103,13 @@
         <v>20301</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -7133,13 +7118,13 @@
         <v>20518</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -7148,13 +7133,13 @@
         <v>40819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,13 +7154,13 @@
         <v>3022</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>295</v>
+        <v>468</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7184,13 +7169,13 @@
         <v>2521</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -7199,13 +7184,13 @@
         <v>5543</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,7 +7211,7 @@
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7241,7 +7226,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7256,7 +7241,7 @@
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>479</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7262,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>328</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7292,7 +7277,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7307,7 +7292,7 @@
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>479</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,7 +7348,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7375,13 +7360,13 @@
         <v>64178</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H28" s="7">
         <v>88</v>
@@ -7390,13 +7375,13 @@
         <v>66901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M28" s="7">
         <v>173</v>
@@ -7405,13 +7390,13 @@
         <v>131079</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,13 +7411,13 @@
         <v>35928</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>488</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -7441,13 +7426,13 @@
         <v>37212</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>98</v>
@@ -7456,13 +7441,13 @@
         <v>73140</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>496</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7462,13 @@
         <v>1323</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>497</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7492,13 +7477,13 @@
         <v>3478</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>500</v>
+        <v>63</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -7507,13 +7492,13 @@
         <v>4802</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>503</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,7 +7519,7 @@
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7549,7 +7534,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7564,7 +7549,7 @@
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,7 +7570,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7600,7 +7585,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7615,7 +7600,7 @@
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7668,13 @@
         <v>240433</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H34" s="7">
         <v>327</v>
@@ -7698,13 +7683,13 @@
         <v>227303</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>306</v>
+        <v>506</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M34" s="7">
         <v>655</v>
@@ -7713,13 +7698,13 @@
         <v>467736</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,13 +7719,13 @@
         <v>107979</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H35" s="7">
         <v>160</v>
@@ -7749,13 +7734,13 @@
         <v>114080</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M35" s="7">
         <v>310</v>
@@ -7764,13 +7749,13 @@
         <v>222058</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>172</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,13 +7770,13 @@
         <v>10760</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>525</v>
+        <v>125</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>327</v>
+        <v>521</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -7800,13 +7785,13 @@
         <v>14397</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -7815,13 +7800,13 @@
         <v>25157</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>98</v>
+        <v>525</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>529</v>
+        <v>99</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,7 +7827,7 @@
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7857,7 +7842,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7872,7 +7857,7 @@
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,7 +7878,7 @@
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -7902,13 +7887,13 @@
         <v>993</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -7917,13 +7902,13 @@
         <v>993</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>535</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,7 +7964,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D840B7-B32D-43F6-9517-450F719CCAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{898BA9C3-1DAA-4DBD-94BE-7F7E114C7EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D59D173F-D4D0-4ACE-B10A-80ED8726D166}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6772A3D3-FFE5-483C-ACFE-0BFA8EE6BAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="470">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,85 +67,112 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -154,1480 +181,1270 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>43,38%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>68,08%</t>
   </si>
   <si>
-    <t>35,42%</t>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
+    <t>35,89%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
     <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -2042,8 +1859,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78756CA1-6E2B-410F-AD8C-CC654D09EBE0}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD46BE67-0A05-48C9-88E7-704C76ED2DA7}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2160,10 +1977,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>12977</v>
+        <v>42922</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2175,10 +1992,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="I4" s="7">
-        <v>11354</v>
+        <v>56727</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2190,10 +2007,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="N4" s="7">
-        <v>24331</v>
+        <v>99650</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2211,10 +2028,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>839</v>
+        <v>19673</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2226,10 +2043,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>3683</v>
+        <v>21400</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2241,10 +2058,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N5" s="7">
-        <v>4522</v>
+        <v>41074</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2262,55 +2079,55 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1421</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2688</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4108</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2319,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2334,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2349,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2370,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2385,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2400,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,102 +2232,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7">
-        <v>13816</v>
+        <v>64016</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="I9" s="7">
-        <v>15037</v>
+        <v>80815</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="N9" s="7">
-        <v>28853</v>
+        <v>144832</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D10" s="7">
-        <v>43750</v>
+        <v>60855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I10" s="7">
-        <v>31567</v>
+        <v>60607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="N10" s="7">
-        <v>75318</v>
+        <v>121462</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,49 +2336,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>20561</v>
+        <v>40528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>15991</v>
+        <v>34833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="N11" s="7">
-        <v>36552</v>
+        <v>75360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,55 +2387,55 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>2688</v>
+        <v>1949</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>1421</v>
+        <v>3796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>4108</v>
+        <v>5745</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2627,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2642,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2657,34 +2474,34 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2693,28 +2510,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,102 +2540,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="D15" s="7">
-        <v>66999</v>
+        <v>103993</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="I15" s="7">
-        <v>48979</v>
+        <v>99235</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="N15" s="7">
-        <v>115978</v>
+        <v>203228</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>60607</v>
+        <v>37394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="7">
         <v>70</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="7">
-        <v>96</v>
-      </c>
       <c r="I16" s="7">
-        <v>60855</v>
+        <v>44836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="N16" s="7">
-        <v>121462</v>
+        <v>82230</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,49 +2644,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>34833</v>
+        <v>20744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>40528</v>
+        <v>19465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="N17" s="7">
-        <v>75360</v>
+        <v>40209</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,55 +2695,55 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>3796</v>
+        <v>2919</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1949</v>
+        <v>1994</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>5745</v>
+        <v>4913</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2935,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2950,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2965,19 +2782,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2986,43 +2803,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,102 +2848,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D21" s="7">
-        <v>99235</v>
+        <v>61057</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="I21" s="7">
-        <v>103993</v>
+        <v>66295</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
-        <v>315</v>
+        <v>204</v>
       </c>
       <c r="N21" s="7">
-        <v>203228</v>
+        <v>127351</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D22" s="7">
-        <v>44836</v>
+        <v>46900</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>37394</v>
+        <v>53143</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="N22" s="7">
-        <v>82230</v>
+        <v>100043</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,49 +2952,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7">
-        <v>19465</v>
+        <v>38416</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I23" s="7">
-        <v>20744</v>
+        <v>42022</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="N23" s="7">
-        <v>40209</v>
+        <v>80438</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,70 +3003,70 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>1994</v>
+        <v>5120</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>2919</v>
+        <v>4077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M24" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>4913</v>
+        <v>9197</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3258,34 +3075,34 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3294,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3309,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3324,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,102 +3156,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D27" s="7">
-        <v>66295</v>
+        <v>91133</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I27" s="7">
-        <v>61057</v>
+        <v>99242</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="N27" s="7">
-        <v>127351</v>
+        <v>190374</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>53143</v>
+        <v>188071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="I28" s="7">
-        <v>46900</v>
+        <v>215313</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
-        <v>138</v>
+        <v>601</v>
       </c>
       <c r="N28" s="7">
-        <v>100043</v>
+        <v>403384</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,49 +3260,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="D29" s="7">
-        <v>42022</v>
+        <v>119361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="I29" s="7">
-        <v>38416</v>
+        <v>117720</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="N29" s="7">
-        <v>80438</v>
+        <v>237080</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,85 +3311,85 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7">
-        <v>4077</v>
+        <v>11409</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H30" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I30" s="7">
-        <v>5120</v>
+        <v>12554</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N30" s="7">
-        <v>9197</v>
+        <v>23963</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3581,34 +3398,34 @@
         <v>696</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3617,28 +3434,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,370 +3464,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>144</v>
+        <v>475</v>
       </c>
       <c r="D33" s="7">
-        <v>99242</v>
+        <v>320198</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="I33" s="7">
-        <v>91133</v>
+        <v>345587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
-        <v>263</v>
+        <v>994</v>
       </c>
       <c r="N33" s="7">
-        <v>190374</v>
+        <v>665785</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>323</v>
-      </c>
-      <c r="D34" s="7">
-        <v>215313</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="7">
-        <v>278</v>
-      </c>
-      <c r="I34" s="7">
-        <v>188071</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M34" s="7">
-        <v>601</v>
-      </c>
-      <c r="N34" s="7">
-        <v>403384</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>177</v>
-      </c>
-      <c r="D35" s="7">
-        <v>117720</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="7">
-        <v>178</v>
-      </c>
-      <c r="I35" s="7">
-        <v>119361</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K35" s="7" t="s">
+      <c r="A34" t="s">
         <v>179</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M35" s="7">
-        <v>355</v>
-      </c>
-      <c r="N35" s="7">
-        <v>237080</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>19</v>
-      </c>
-      <c r="D36" s="7">
-        <v>12554</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="7">
-        <v>17</v>
-      </c>
-      <c r="I36" s="7">
-        <v>11409</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M36" s="7">
-        <v>36</v>
-      </c>
-      <c r="N36" s="7">
-        <v>23963</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>696</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>696</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
-        <v>661</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1</v>
-      </c>
-      <c r="N38" s="7">
-        <v>661</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>519</v>
-      </c>
-      <c r="D39" s="7">
-        <v>345587</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="7">
-        <v>475</v>
-      </c>
-      <c r="I39" s="7">
-        <v>320198</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="7">
-        <v>994</v>
-      </c>
-      <c r="N39" s="7">
-        <v>665785</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>197</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4023,8 +3531,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7546674-9BEA-4CA6-AFE3-66ABA84EF004}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE32713-6F4A-47E8-A765-3C037B2531F2}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4040,7 +3548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4141,49 +3649,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>8813</v>
+        <v>43316</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>7693</v>
+        <v>48167</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="N4" s="7">
-        <v>16506</v>
+        <v>91483</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,49 +3700,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>5677</v>
+        <v>21649</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>4250</v>
+        <v>21760</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="N5" s="7">
-        <v>9927</v>
+        <v>43408</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,49 +3757,49 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2738</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>2738</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4300,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4315,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4330,19 +3838,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4351,13 +3859,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4366,13 +3874,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4381,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,102 +3904,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7">
-        <v>14490</v>
+        <v>64965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="I9" s="7">
-        <v>11943</v>
+        <v>72664</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="N9" s="7">
-        <v>26433</v>
+        <v>137629</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D10" s="7">
-        <v>39354</v>
+        <v>64529</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I10" s="7">
-        <v>35624</v>
+        <v>61705</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="N10" s="7">
-        <v>74977</v>
+        <v>126233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>16083</v>
+        <v>32695</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>17398</v>
+        <v>32243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N11" s="7">
-        <v>33481</v>
+        <v>64939</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,55 +4059,55 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2738</v>
+        <v>1218</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>3242</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>2738</v>
+        <v>4460</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4608,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4623,13 +4131,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4638,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4659,13 +4167,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4674,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4689,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,102 +4212,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="D15" s="7">
-        <v>58174</v>
+        <v>98442</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="I15" s="7">
-        <v>53022</v>
+        <v>97190</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c r="N15" s="7">
-        <v>111196</v>
+        <v>195632</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>61705</v>
+        <v>38947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>64529</v>
+        <v>52893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="N16" s="7">
-        <v>126233</v>
+        <v>91840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,49 +4316,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>32243</v>
+        <v>25089</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>32695</v>
+        <v>14463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="N17" s="7">
-        <v>64939</v>
+        <v>39552</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,55 +4367,55 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>3242</v>
+        <v>1812</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1218</v>
+        <v>1589</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>4460</v>
+        <v>3401</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -4916,64 +4424,64 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4982,28 +4490,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,102 +4520,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="D21" s="7">
-        <v>97190</v>
+        <v>66524</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7">
-        <v>98442</v>
+        <v>69524</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="N21" s="7">
-        <v>195632</v>
+        <v>136048</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7">
-        <v>52893</v>
+        <v>49791</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H22" s="7">
+        <v>76</v>
+      </c>
+      <c r="I22" s="7">
+        <v>54617</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>141</v>
+      </c>
+      <c r="N22" s="7">
+        <v>104407</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="H22" s="7">
-        <v>59</v>
-      </c>
-      <c r="I22" s="7">
-        <v>38947</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M22" s="7">
-        <v>142</v>
-      </c>
-      <c r="N22" s="7">
-        <v>91840</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,49 +4624,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7">
-        <v>14463</v>
+        <v>37202</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" s="7">
+        <v>42</v>
+      </c>
+      <c r="I23" s="7">
+        <v>31004</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M23" s="7">
+        <v>89</v>
+      </c>
+      <c r="N23" s="7">
+        <v>68205</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="H23" s="7">
-        <v>39</v>
-      </c>
-      <c r="I23" s="7">
-        <v>25089</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M23" s="7">
-        <v>62</v>
-      </c>
-      <c r="N23" s="7">
-        <v>39552</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,106 +4675,106 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>1589</v>
+        <v>4335</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="7">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5373</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M24" s="7">
+        <v>12</v>
+      </c>
+      <c r="N24" s="7">
+        <v>9708</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1812</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6</v>
-      </c>
-      <c r="N24" s="7">
-        <v>3401</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
-        <v>580</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>580</v>
+        <v>691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5275,43 +4783,43 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,102 +4828,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D27" s="7">
-        <v>69524</v>
+        <v>91327</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="I27" s="7">
-        <v>66524</v>
+        <v>91685</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="N27" s="7">
-        <v>136048</v>
+        <v>183012</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>54617</v>
+        <v>196583</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H28" s="7">
+        <v>318</v>
+      </c>
+      <c r="I28" s="7">
+        <v>217381</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M28" s="7">
+        <v>596</v>
+      </c>
+      <c r="N28" s="7">
+        <v>413964</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H28" s="7">
-        <v>65</v>
-      </c>
-      <c r="I28" s="7">
-        <v>49791</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M28" s="7">
-        <v>141</v>
-      </c>
-      <c r="N28" s="7">
-        <v>104407</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,49 +4932,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="D29" s="7">
-        <v>31004</v>
+        <v>116635</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="7">
+        <v>143</v>
+      </c>
+      <c r="I29" s="7">
+        <v>99470</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M29" s="7">
+        <v>310</v>
+      </c>
+      <c r="N29" s="7">
+        <v>216105</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H29" s="7">
-        <v>47</v>
-      </c>
-      <c r="I29" s="7">
-        <v>37202</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M29" s="7">
-        <v>89</v>
-      </c>
-      <c r="N29" s="7">
-        <v>68205</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,121 +4983,121 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>5373</v>
+        <v>7365</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H30" s="7">
+        <v>19</v>
+      </c>
+      <c r="I30" s="7">
+        <v>12942</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M30" s="7">
+        <v>29</v>
+      </c>
+      <c r="N30" s="7">
+        <v>20306</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H30" s="7">
-        <v>5</v>
-      </c>
-      <c r="I30" s="7">
-        <v>4335</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M30" s="7">
-        <v>12</v>
-      </c>
-      <c r="N30" s="7">
-        <v>9708</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>87</v>
+        <v>324</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>1271</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>332</v>
+        <v>143</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>691</v>
+        <v>1271</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5598,28 +5106,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,370 +5136,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>126</v>
+        <v>456</v>
       </c>
       <c r="D33" s="7">
-        <v>91685</v>
+        <v>321258</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
-        <v>117</v>
+        <v>482</v>
       </c>
       <c r="I33" s="7">
-        <v>91327</v>
+        <v>331064</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
-        <v>243</v>
+        <v>938</v>
       </c>
       <c r="N33" s="7">
-        <v>183012</v>
+        <v>652322</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>318</v>
-      </c>
-      <c r="D34" s="7">
-        <v>217381</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H34" s="7">
-        <v>278</v>
-      </c>
-      <c r="I34" s="7">
-        <v>196583</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="M34" s="7">
-        <v>596</v>
-      </c>
-      <c r="N34" s="7">
-        <v>413964</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>143</v>
-      </c>
-      <c r="D35" s="7">
-        <v>99470</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H35" s="7">
-        <v>167</v>
-      </c>
-      <c r="I35" s="7">
-        <v>116635</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="M35" s="7">
-        <v>310</v>
-      </c>
-      <c r="N35" s="7">
-        <v>216105</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>19</v>
-      </c>
-      <c r="D36" s="7">
-        <v>12942</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H36" s="7">
-        <v>10</v>
-      </c>
-      <c r="I36" s="7">
-        <v>7365</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M36" s="7">
-        <v>29</v>
-      </c>
-      <c r="N36" s="7">
-        <v>20306</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1271</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1271</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
-        <v>675</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1</v>
-      </c>
-      <c r="N38" s="7">
-        <v>675</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>482</v>
-      </c>
-      <c r="D39" s="7">
-        <v>331064</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="7">
-        <v>456</v>
-      </c>
-      <c r="I39" s="7">
-        <v>321258</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="7">
-        <v>938</v>
-      </c>
-      <c r="N39" s="7">
-        <v>652322</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>197</v>
+      <c r="A34" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6004,8 +5203,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EFC768-A408-41B5-9719-0E887158D626}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A9B5A7-B33A-42CD-A0D6-E03CF9D6894A}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6021,7 +5220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6122,49 +5321,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7">
-        <v>8052</v>
+        <v>45548</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>9404</v>
+        <v>51987</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="N4" s="7">
-        <v>17456</v>
+        <v>97534</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>375</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,49 +5372,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>6262</v>
+        <v>22990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>3499</v>
+        <v>19271</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>9761</v>
+        <v>42260</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,55 +5423,55 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1023</v>
+        <v>2370</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>1023</v>
+        <v>4673</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -6281,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6296,13 +5495,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6311,19 +5510,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6332,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6347,13 +5546,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6362,13 +5561,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,102 +5576,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7">
-        <v>14314</v>
+        <v>70841</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="I9" s="7">
-        <v>13926</v>
+        <v>73627</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="N9" s="7">
-        <v>28240</v>
+        <v>144467</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>43934</v>
+        <v>66184</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I10" s="7">
-        <v>36144</v>
+        <v>70407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="N10" s="7">
-        <v>80078</v>
+        <v>136591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,49 +5680,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>13009</v>
+        <v>33360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>19490</v>
+        <v>32478</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="N11" s="7">
-        <v>32500</v>
+        <v>65839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,55 +5731,55 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>2370</v>
+        <v>6093</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>413</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>1280</v>
+        <v>4046</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>3650</v>
+        <v>10139</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -6589,13 +5788,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6604,13 +5803,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6619,34 +5818,34 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>421</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6655,28 +5854,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,102 +5884,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="D15" s="7">
-        <v>59313</v>
+        <v>106630</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="I15" s="7">
-        <v>56915</v>
+        <v>106931</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="N15" s="7">
-        <v>116228</v>
+        <v>213561</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>70407</v>
+        <v>48671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>66184</v>
+        <v>53861</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="N16" s="7">
-        <v>136591</v>
+        <v>102532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,49 +5988,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>32478</v>
+        <v>20518</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>33360</v>
+        <v>20301</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="N17" s="7">
-        <v>65839</v>
+        <v>40819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,55 +6039,55 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>4046</v>
+        <v>2521</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>6093</v>
+        <v>3022</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>440</v>
+        <v>319</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="M18" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>10139</v>
+        <v>5543</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>326</v>
+        <v>409</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>443</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -6897,13 +6096,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6912,13 +6111,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6927,19 +6126,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -6948,43 +6147,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>446</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>448</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,102 +6192,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="D21" s="7">
-        <v>106931</v>
+        <v>71710</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="I21" s="7">
-        <v>106630</v>
+        <v>77184</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c r="N21" s="7">
-        <v>213561</v>
+        <v>148894</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>53861</v>
+        <v>66901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I22" s="7">
-        <v>48671</v>
+        <v>64178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="N22" s="7">
-        <v>102532</v>
+        <v>131079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,49 +6296,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D23" s="7">
-        <v>20301</v>
+        <v>37212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="H23" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I23" s="7">
-        <v>20518</v>
+        <v>35928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="M23" s="7">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N23" s="7">
-        <v>40819</v>
+        <v>73140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,55 +6347,55 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>3022</v>
+        <v>3478</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>2521</v>
+        <v>1323</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>471</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="M24" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>5543</v>
+        <v>4802</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>474</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -7205,13 +6404,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7220,13 +6419,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7235,19 +6434,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -7256,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7271,13 +6470,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7286,13 +6485,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,102 +6500,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D27" s="7">
-        <v>77184</v>
+        <v>107592</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="I27" s="7">
-        <v>71710</v>
+        <v>101429</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="N27" s="7">
-        <v>148894</v>
+        <v>209021</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="D28" s="7">
-        <v>64178</v>
+        <v>227303</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="H28" s="7">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="I28" s="7">
-        <v>66901</v>
+        <v>240433</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="M28" s="7">
-        <v>173</v>
+        <v>655</v>
       </c>
       <c r="N28" s="7">
-        <v>131079</v>
+        <v>467736</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,49 +6604,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="D29" s="7">
-        <v>35928</v>
+        <v>114080</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="I29" s="7">
-        <v>37212</v>
+        <v>107979</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="M29" s="7">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="N29" s="7">
-        <v>73140</v>
+        <v>222058</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,55 +6655,55 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7">
-        <v>1323</v>
+        <v>14397</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>88</v>
+        <v>458</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>459</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="H30" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>3478</v>
+        <v>10760</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>63</v>
+        <v>462</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="M30" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N30" s="7">
-        <v>4802</v>
+        <v>25157</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>58</v>
+        <v>465</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -7513,13 +6712,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>499</v>
+        <v>294</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7528,13 +6727,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7543,34 +6742,34 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>501</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>22</v>
+        <v>468</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>499</v>
+        <v>438</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7579,28 +6778,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,370 +6808,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>137</v>
+        <v>510</v>
       </c>
       <c r="D33" s="7">
-        <v>101429</v>
+        <v>356772</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
-        <v>141</v>
+        <v>493</v>
       </c>
       <c r="I33" s="7">
-        <v>107592</v>
+        <v>359172</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
-        <v>278</v>
+        <v>1003</v>
       </c>
       <c r="N33" s="7">
-        <v>209021</v>
+        <v>715944</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>328</v>
-      </c>
-      <c r="D34" s="7">
-        <v>240433</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="H34" s="7">
-        <v>327</v>
-      </c>
-      <c r="I34" s="7">
-        <v>227303</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="M34" s="7">
-        <v>655</v>
-      </c>
-      <c r="N34" s="7">
-        <v>467736</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>150</v>
-      </c>
-      <c r="D35" s="7">
-        <v>107979</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="H35" s="7">
-        <v>160</v>
-      </c>
-      <c r="I35" s="7">
-        <v>114080</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="M35" s="7">
-        <v>310</v>
-      </c>
-      <c r="N35" s="7">
-        <v>222058</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7">
-        <v>10760</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="H36" s="7">
-        <v>22</v>
-      </c>
-      <c r="I36" s="7">
-        <v>14397</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="M36" s="7">
-        <v>37</v>
-      </c>
-      <c r="N36" s="7">
-        <v>25157</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
-        <v>993</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1</v>
-      </c>
-      <c r="N38" s="7">
-        <v>993</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>493</v>
-      </c>
-      <c r="D39" s="7">
-        <v>359172</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="7">
-        <v>510</v>
-      </c>
-      <c r="I39" s="7">
-        <v>356772</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1003</v>
-      </c>
-      <c r="N39" s="7">
-        <v>715944</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>197</v>
+      <c r="A34" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
